--- a/MWS/Application/EntryMemo/Doc/入力ファイルフォーマット定義.xlsx
+++ b/MWS/Application/EntryMemo/Doc/入力ファイルフォーマット定義.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceTree\MWS\Application\EntryMemo\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBE7BD1-3FE7-48C5-8D78-96DB32D0FE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABE921D-7B48-4B43-A738-84C4140660D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21735" windowHeight="13125" activeTab="1" xr2:uid="{37D7D04A-EF17-4496-AE65-CAF2F8B2A266}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{37D7D04A-EF17-4496-AE65-CAF2F8B2A266}"/>
   </bookViews>
   <sheets>
-    <sheet name="銀行振込請求書発行" sheetId="1" r:id="rId1"/>
-    <sheet name="オン資格補助金申請書類" sheetId="2" r:id="rId2"/>
+    <sheet name="1-銀行振込請求書発行" sheetId="1" r:id="rId1"/>
+    <sheet name="2-オン資格補助金申請書類" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -619,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E74B3A-619F-4EFA-A1D9-7181D7601E8C}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -769,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70C7CD98-5920-417A-85CA-F0245AE26247}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
